--- a/Documentation/FilmCatalog Project Planning.xlsx
+++ b/Documentation/FilmCatalog Project Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian LeMaster\source\repos\FilmCatalog\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2466D5D-0E03-4F14-BB52-48A2743CBB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3703D41D-230E-49C8-BF1A-7499DF0CFD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{7156A0D2-98BE-49B2-89E3-959B9F3C1BD9}"/>
+    <workbookView xWindow="-83" yWindow="1245" windowWidth="20686" windowHeight="11085" activeTab="5" xr2:uid="{7156A0D2-98BE-49B2-89E3-959B9F3C1BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="DB Scaffolding" sheetId="6" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Validation Rules" sheetId="3" r:id="rId3"/>
     <sheet name="Features" sheetId="4" r:id="rId4"/>
     <sheet name="Endpoints" sheetId="5" r:id="rId5"/>
-    <sheet name="Endpoint Tests" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="UI ToDo" sheetId="8" r:id="rId6"/>
+    <sheet name="Endpoint Tests" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Endpoint Tests'!$B$3:$L$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Endpoint Tests'!$B$3:$L$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Endpoints!$B$3:$B$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="101">
   <si>
     <t>Validation rules</t>
   </si>
@@ -318,6 +319,36 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Customize colors and styles</t>
+  </si>
+  <si>
+    <t>#AAC2B4</t>
+  </si>
+  <si>
+    <t>#FFC000</t>
+  </si>
+  <si>
+    <t>#EBE379</t>
+  </si>
+  <si>
+    <t>Create data service interface and implementation</t>
+  </si>
+  <si>
+    <t>Create models (copy over from API)</t>
+  </si>
+  <si>
+    <t>Set up dependency injection</t>
+  </si>
+  <si>
+    <t>Create controls (master/details and list with controls)</t>
+  </si>
+  <si>
+    <t>Create pages</t>
+  </si>
+  <si>
+    <t>Wire up navigation</t>
   </si>
 </sst>
 </file>
@@ -392,7 +423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +450,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBE379"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC2B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7B2FC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -481,7 +536,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -499,14 +554,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -517,6 +578,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC7B2FC"/>
+      <color rgb="FFD6E2DB"/>
+      <color rgb="FFAAC2B4"/>
+      <color rgb="FF799F88"/>
+      <color rgb="FF577965"/>
+      <color rgb="FFEBE379"/>
+      <color rgb="FFB1C7BA"/>
       <color rgb="FFF3CDE6"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
@@ -946,13 +1014,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -960,31 +1028,31 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="9"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="9"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="9"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="9"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -992,7 +1060,7 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="9"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1074,7 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1014,7 +1082,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="9"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D32AB0-36D0-4078-8DB8-91088C2F984C}">
   <dimension ref="B3:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1261,6 +1329,90 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDF7BA4-B05C-4B0D-BBE6-5501A4AC3577}">
+  <dimension ref="B3:U9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="14"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4" s="17">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="11"/>
+      <c r="T4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5" s="17">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6" s="17">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7" s="18">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BB4C6D-299A-472E-BABB-C97B8892943E}">
   <dimension ref="B3:L31"/>
   <sheetViews>
@@ -1319,31 +1471,31 @@
       <c r="C4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="D4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1354,31 +1506,31 @@
       <c r="C5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="11" t="s">
+      <c r="D5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1389,31 +1541,31 @@
       <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="D6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1424,31 +1576,31 @@
       <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="12" t="s">
+      <c r="D7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1459,31 +1611,31 @@
       <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="12" t="s">
+      <c r="D8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1494,31 +1646,31 @@
       <c r="C9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="12" t="s">
+      <c r="D9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1529,31 +1681,31 @@
       <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="12" t="s">
+      <c r="D10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1564,31 +1716,31 @@
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" s="12" t="s">
+      <c r="D11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1599,31 +1751,31 @@
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="12" t="s">
+      <c r="D12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1634,31 +1786,31 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="D13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1669,31 +1821,31 @@
       <c r="C14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="D14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1704,31 +1856,31 @@
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="12" t="s">
+      <c r="D15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1739,31 +1891,31 @@
       <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="12" t="s">
+      <c r="D16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1774,31 +1926,31 @@
       <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="12" t="s">
+      <c r="D17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1809,31 +1961,31 @@
       <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="12" t="s">
+      <c r="D18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1844,31 +1996,31 @@
       <c r="C19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="12" t="s">
+      <c r="D19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1879,31 +2031,31 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="12" t="s">
+      <c r="D20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1914,31 +2066,31 @@
       <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="12" t="s">
+      <c r="D21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1949,31 +2101,31 @@
       <c r="C22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="12" t="s">
+      <c r="D22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1984,31 +2136,31 @@
       <c r="C23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" s="12" t="s">
+      <c r="D23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2019,31 +2171,31 @@
       <c r="C24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" s="12" t="s">
+      <c r="D24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2054,31 +2206,31 @@
       <c r="C25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L25" s="12" t="s">
+      <c r="D25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2089,31 +2241,31 @@
       <c r="C26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L26" s="12" t="s">
+      <c r="D26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2124,31 +2276,31 @@
       <c r="C27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L27" s="12" t="s">
+      <c r="D27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2159,31 +2311,31 @@
       <c r="C28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L28" s="12" t="s">
+      <c r="D28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2194,31 +2346,31 @@
       <c r="C29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L29" s="12" t="s">
+      <c r="D29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2229,31 +2381,31 @@
       <c r="C30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L30" s="12" t="s">
+      <c r="D30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2264,31 +2416,31 @@
       <c r="C31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L31" s="12" t="s">
+      <c r="D31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="10" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Documentation/FilmCatalog Project Planning.xlsx
+++ b/Documentation/FilmCatalog Project Planning.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian LeMaster\source\repos\FilmCatalog\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3703D41D-230E-49C8-BF1A-7499DF0CFD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA96DFC-7A43-411A-B521-0D0143E91439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="1245" windowWidth="20686" windowHeight="11085" activeTab="5" xr2:uid="{7156A0D2-98BE-49B2-89E3-959B9F3C1BD9}"/>
+    <workbookView xWindow="-75" yWindow="210" windowWidth="20505" windowHeight="12945" firstSheet="1" activeTab="5" xr2:uid="{7156A0D2-98BE-49B2-89E3-959B9F3C1BD9}"/>
   </bookViews>
   <sheets>
-    <sheet name="DB Scaffolding" sheetId="6" r:id="rId1"/>
+    <sheet name="DB Scaffolding" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="ER Diagram" sheetId="2" r:id="rId2"/>
     <sheet name="Validation Rules" sheetId="3" r:id="rId3"/>
     <sheet name="Features" sheetId="4" r:id="rId4"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="106">
   <si>
     <t>Validation rules</t>
   </si>
@@ -349,15 +349,37 @@
   </si>
   <si>
     <t>Wire up navigation</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>#FDDFF4</t>
+  </si>
+  <si>
+    <t>Complete grouped views on films page</t>
+  </si>
+  <si>
+    <t>Complete add film on film details page</t>
+  </si>
+  <si>
+    <t>Complete update film on film details page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -422,8 +444,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,7 +515,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC7B2FC"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,45 +585,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,12 +637,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFDDFF4"/>
+      <color rgb="FFEBE379"/>
+      <color rgb="FFAAC2B4"/>
       <color rgb="FFC7B2FC"/>
       <color rgb="FFD6E2DB"/>
-      <color rgb="FFAAC2B4"/>
       <color rgb="FF799F88"/>
       <color rgb="FF577965"/>
-      <color rgb="FFEBE379"/>
       <color rgb="FFB1C7BA"/>
       <color rgb="FFF3CDE6"/>
       <color rgb="FFFFFFCC"/>
@@ -1004,23 +1064,23 @@
   <dimension ref="B3:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="58.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1028,31 +1088,31 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="15"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="15"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1060,7 +1120,7 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="15"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1134,7 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1082,7 +1142,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1330,82 +1390,155 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDF7BA4-B05C-4B0D-BBE6-5501A4AC3577}">
-  <dimension ref="B3:U9"/>
+  <dimension ref="A3:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="3" width="9.06640625" style="21"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B3" s="17">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="M3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" t="s">
         <v>92</v>
       </c>
-      <c r="U3" s="14"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B4" s="17">
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="N4" s="11"/>
+      <c r="O4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B5" s="17">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="N5" s="12"/>
+      <c r="O5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B6" s="17">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B6" s="19">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B7" s="18">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B7" s="19">
         <v>5</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B8">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B8" s="19">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B9">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B9" s="19">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="19" t="s">
         <v>100</v>
       </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B10" s="20">
+        <v>8</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B11" s="20">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.5">
+      <c r="B12" s="20">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1426,7 +1559,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="23.59765625" customWidth="1"/>
-    <col min="4" max="12" width="13.06640625" customWidth="1"/>
+    <col min="4" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">

--- a/Documentation/FilmCatalog Project Planning.xlsx
+++ b/Documentation/FilmCatalog Project Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian LeMaster\source\repos\FilmCatalog\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA96DFC-7A43-411A-B521-0D0143E91439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B53A7EF-E92F-4ACC-B068-EFBCF6C08C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="210" windowWidth="20505" windowHeight="12945" firstSheet="1" activeTab="5" xr2:uid="{7156A0D2-98BE-49B2-89E3-959B9F3C1BD9}"/>
+    <workbookView xWindow="42510" yWindow="1470" windowWidth="21600" windowHeight="11055" firstSheet="1" activeTab="5" xr2:uid="{7156A0D2-98BE-49B2-89E3-959B9F3C1BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="DB Scaffolding" sheetId="6" state="hidden" r:id="rId1"/>
@@ -591,7 +591,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -617,15 +617,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1074,13 +1075,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1088,31 +1089,31 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="17"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="17"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="17"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="17"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1120,7 +1121,7 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="17"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1135,7 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1142,7 +1143,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="17"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1398,14 +1399,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="3" width="9.06640625" style="21"/>
+    <col min="1" max="3" width="9.06640625" style="19"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>91</v>
       </c>
       <c r="D3" s="14"/>
@@ -1421,10 +1422,10 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="14"/>
@@ -1437,10 +1438,10 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="14"/>
@@ -1453,10 +1454,10 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>4</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="14"/>
@@ -1469,10 +1470,10 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>5</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="14"/>
@@ -1481,10 +1482,10 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <v>6</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>99</v>
       </c>
       <c r="D8" s="14"/>
@@ -1493,10 +1494,10 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>7</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="14"/>
@@ -1505,16 +1506,16 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>8</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.5">
       <c r="B11" s="20">
@@ -1523,16 +1524,16 @@
       <c r="C11" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.5">
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <v>10</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>105</v>
       </c>
       <c r="D12" s="16"/>

--- a/Documentation/FilmCatalog Project Planning.xlsx
+++ b/Documentation/FilmCatalog Project Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian LeMaster\source\repos\FilmCatalog\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B53A7EF-E92F-4ACC-B068-EFBCF6C08C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B5AC1-9584-4D7C-8479-4779F8E0D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42510" yWindow="1470" windowWidth="21600" windowHeight="11055" firstSheet="1" activeTab="5" xr2:uid="{7156A0D2-98BE-49B2-89E3-959B9F3C1BD9}"/>
+    <workbookView xWindow="-83" yWindow="1245" windowWidth="20686" windowHeight="11085" firstSheet="1" activeTab="5" xr2:uid="{7156A0D2-98BE-49B2-89E3-959B9F3C1BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="DB Scaffolding" sheetId="6" state="hidden" r:id="rId1"/>
@@ -360,10 +360,10 @@
     <t>Complete grouped views on films page</t>
   </si>
   <si>
-    <t>Complete add film on film details page</t>
-  </si>
-  <si>
     <t>Complete update film on film details page</t>
+  </si>
+  <si>
+    <t>Complete add film on films page</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1534,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
